--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\OneDrive\Desktop\Klas Werk\SEMESTER 1\CMPG 315\Projek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD9E3467-B906-4962-B185-C5DB139A0BC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39FEAE-1AE2-4514-9D67-3AC3EDBD9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
     <sheet name="Attendance" sheetId="3" r:id="rId2"/>
+    <sheet name="Notes on Meetings" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
   <si>
     <t>Naam</t>
   </si>
@@ -141,12 +142,33 @@
   <si>
     <t>A t t e n d a n c e</t>
   </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>What happened</t>
+  </si>
+  <si>
+    <t>Conclusion</t>
+  </si>
+  <si>
+    <t>Meeting Days</t>
+  </si>
+  <si>
+    <t>Meet and greet. Talked about project and read through the documents. Discussed how the group dynamics could work, for example making smaller teams of two or three. Would ideally be of different skill sets. We also discussed when and where we could meet in the future (agreement on using the library, Discord and GitHub). Lastly, we discussed what everyone should do and then we agreed on a deadline.</t>
+  </si>
+  <si>
+    <t>Group was very friendly and welcoming to new ideas. Seems like everybody understood what was expected and agreed with eachother most of the times.</t>
+  </si>
+  <si>
+    <t>We agreed on the following: Completing the course work with deadline of 18 March, creating a GitHub repository and joining it so long, creating a Discord server, have our meetings in a boardroom at the library and choosing a group leader.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -201,6 +223,27 @@
       <name val="Wingdings"/>
       <charset val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -216,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -360,11 +403,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -419,6 +547,22 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -763,14 +907,14 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="22" t="s">
         <v>21</v>
       </c>
@@ -778,7 +922,7 @@
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
     </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -790,7 +934,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -804,7 +948,7 @@
         <v>41093615</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -818,7 +962,7 @@
         <v>37328409</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -832,7 +976,7 @@
         <v>38566567</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -846,7 +990,7 @@
         <v>40513262</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -860,7 +1004,7 @@
         <v>41049764</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -874,7 +1018,7 @@
         <v>41293584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -888,7 +1032,7 @@
         <v>44214987</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -902,7 +1046,7 @@
         <v>40779173</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -916,7 +1060,7 @@
         <v>40977676</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -948,19 +1092,19 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A1" s="23" t="s">
         <v>21</v>
       </c>
@@ -990,7 +1134,7 @@
       <c r="Y1" s="23"/>
       <c r="Z1" s="24"/>
     </row>
-    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
       <c r="A2" s="23" t="s">
         <v>26</v>
       </c>
@@ -1020,7 +1164,7 @@
       <c r="Y2" s="23"/>
       <c r="Z2" s="24"/>
     </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1056,7 +1200,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -1094,7 +1238,7 @@
       <c r="Y4" s="17"/>
       <c r="Z4" s="17"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -1132,7 +1276,7 @@
       <c r="Y5" s="17"/>
       <c r="Z5" s="17"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -1170,7 +1314,7 @@
       <c r="Y6" s="17"/>
       <c r="Z6" s="17"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -1208,7 +1352,7 @@
       <c r="Y7" s="17"/>
       <c r="Z7" s="17"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -1246,7 +1390,7 @@
       <c r="Y8" s="17"/>
       <c r="Z8" s="17"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1284,7 +1428,7 @@
       <c r="Y9" s="17"/>
       <c r="Z9" s="17"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -1322,7 +1466,7 @@
       <c r="Y10" s="17"/>
       <c r="Z10" s="17"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>8</v>
       </c>
@@ -1360,7 +1504,7 @@
       <c r="Y11" s="17"/>
       <c r="Z11" s="17"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>9</v>
       </c>
@@ -1398,7 +1542,7 @@
       <c r="Y12" s="17"/>
       <c r="Z12" s="17"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>10</v>
       </c>
@@ -1444,4 +1588,117 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D65755-5192-4D75-83BC-E01B675DC16B}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.77734375" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="26.77734375" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="25" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="25" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="str">
+        <f>Attendance!E3</f>
+        <v>Maandag 2024/03/04</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="26">
+        <f>Attendance!F3</f>
+        <v>0</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="28"/>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="26">
+        <f>Attendance!G3</f>
+        <v>0</v>
+      </c>
+      <c r="B4" s="27"/>
+      <c r="C4" s="32"/>
+      <c r="D4" s="28"/>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26">
+        <f>Attendance!H3</f>
+        <v>0</v>
+      </c>
+      <c r="B5" s="27"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="28"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26">
+        <f>Attendance!I3</f>
+        <v>0</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="32"/>
+      <c r="D6" s="28"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="26">
+        <f>Attendance!J3</f>
+        <v>0</v>
+      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="28"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="26">
+        <f>Attendance!K3</f>
+        <v>0</v>
+      </c>
+      <c r="B8" s="27"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="28"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="26">
+        <f>Attendance!L3</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="27"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="28"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A39FEAE-1AE2-4514-9D67-3AC3EDBD9EAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A5784A-D45C-4972-862C-FEB430544E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
@@ -259,7 +259,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -488,11 +488,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,13 +546,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,15 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -555,15 +563,43 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -903,8 +939,8 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -915,12 +951,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
@@ -939,13 +975,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D3" s="1">
-        <v>41093615</v>
+        <v>40779173</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -953,13 +989,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>37328409</v>
+        <v>44214987</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -967,13 +1003,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>38566567</v>
+        <v>40513262</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -981,13 +1017,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>40513262</v>
+        <v>40977676</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -1023,13 +1059,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="D9" s="1">
-        <v>44214987</v>
+        <v>37943278</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -1037,13 +1073,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
-        <v>40779173</v>
+        <v>41093615</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1051,13 +1087,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C11" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>40977676</v>
+        <v>38566567</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,18 +1101,18 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1">
-        <v>37943278</v>
+        <v>37328409</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:D12">
-    <sortCondition ref="B3:B12"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D12">
+    <sortCondition ref="C3:C12"/>
   </sortState>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
@@ -1093,7 +1129,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1105,64 +1141,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="24"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="29"/>
     </row>
     <row r="2" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="24"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="29"/>
     </row>
     <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -1201,168 +1237,168 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="30">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1">
-        <v>41093615</v>
+      <c r="B4" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="31">
+        <v>40779173</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
-      <c r="V4" s="17"/>
-      <c r="W4" s="17"/>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="14"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="14"/>
+      <c r="Y4" s="14"/>
+      <c r="Z4" s="14"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="A5" s="32">
         <v>2</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1">
-        <v>37328409</v>
+      <c r="B5" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="33">
+        <v>44214987</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
+      <c r="P5" s="14"/>
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="A6" s="32">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="1">
-        <v>38566567</v>
+      <c r="B6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="33">
+        <v>40513262</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17"/>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
+      <c r="P6" s="14"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="A7" s="32">
         <v>4</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1">
-        <v>40513262</v>
+      <c r="B7" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="33">
+        <v>40977676</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-      <c r="O7" s="17"/>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
+      <c r="P7" s="14"/>
+      <c r="Q7" s="14"/>
+      <c r="R7" s="14"/>
+      <c r="S7" s="14"/>
+      <c r="T7" s="14"/>
+      <c r="U7" s="14"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="14"/>
+      <c r="X7" s="14"/>
+      <c r="Y7" s="14"/>
+      <c r="Z7" s="14"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="A8" s="32">
         <v>5</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="33">
         <v>41049764</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1370,37 +1406,37 @@
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="17"/>
-      <c r="N8" s="17"/>
-      <c r="O8" s="17"/>
-      <c r="P8" s="17"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="17"/>
-      <c r="X8" s="17"/>
-      <c r="Y8" s="17"/>
-      <c r="Z8" s="17"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" s="14"/>
+      <c r="Q8" s="14"/>
+      <c r="R8" s="14"/>
+      <c r="S8" s="14"/>
+      <c r="T8" s="14"/>
+      <c r="U8" s="14"/>
+      <c r="V8" s="14"/>
+      <c r="W8" s="14"/>
+      <c r="X8" s="14"/>
+      <c r="Y8" s="14"/>
+      <c r="Z8" s="14"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="A9" s="32">
         <v>6</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="33">
         <v>41293584</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1408,177 +1444,177 @@
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="17"/>
-      <c r="P9" s="17"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="17"/>
-      <c r="X9" s="17"/>
-      <c r="Y9" s="17"/>
-      <c r="Z9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="14"/>
+      <c r="Q9" s="14"/>
+      <c r="R9" s="14"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="14"/>
+      <c r="X9" s="14"/>
+      <c r="Y9" s="14"/>
+      <c r="Z9" s="14"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="32">
         <v>7</v>
       </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="1">
-        <v>44214987</v>
+      <c r="B10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="33">
+        <v>37943278</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="17"/>
-      <c r="X10" s="17"/>
-      <c r="Y10" s="17"/>
-      <c r="Z10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+      <c r="Y10" s="14"/>
+      <c r="Z10" s="14"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="32">
         <v>8</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="1">
-        <v>40779173</v>
+      <c r="B11" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="33">
+        <v>41093615</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="17"/>
-      <c r="X11" s="17"/>
-      <c r="Y11" s="17"/>
-      <c r="Z11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="14"/>
+      <c r="R11" s="14"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="14"/>
+      <c r="X11" s="14"/>
+      <c r="Y11" s="14"/>
+      <c r="Z11" s="14"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+      <c r="A12" s="32">
         <v>9</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="1">
-        <v>40977676</v>
+      <c r="B12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="33">
+        <v>38566567</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="17"/>
-      <c r="O12" s="17"/>
-      <c r="P12" s="17"/>
-      <c r="Q12" s="17"/>
-      <c r="R12" s="17"/>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="17"/>
-      <c r="X12" s="17"/>
-      <c r="Y12" s="17"/>
-      <c r="Z12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
+      <c r="Q12" s="14"/>
+      <c r="R12" s="14"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="14"/>
+      <c r="X12" s="14"/>
+      <c r="Y12" s="14"/>
+      <c r="Z12" s="14"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="12">
+      <c r="A13" s="34">
         <v>10</v>
       </c>
-      <c r="B13" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="14">
-        <v>37943278</v>
-      </c>
-      <c r="E13" s="15" t="s">
+      <c r="B13" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="35">
+        <v>37328409</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="19"/>
-      <c r="P13" s="19"/>
-      <c r="Q13" s="19"/>
-      <c r="R13" s="19"/>
-      <c r="S13" s="19"/>
-      <c r="T13" s="19"/>
-      <c r="U13" s="19"/>
-      <c r="V13" s="19"/>
-      <c r="W13" s="19"/>
-      <c r="X13" s="19"/>
-      <c r="Y13" s="19"/>
-      <c r="Z13" s="19"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1594,7 +1630,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D65755-5192-4D75-83BC-E01B675DC16B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -1606,97 +1642,97 @@
     <col min="4" max="4" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="25" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="24" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="25" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="26" t="str">
+    <row r="2" spans="1:4" s="19" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="str">
         <f>Attendance!E3</f>
         <v>Maandag 2024/03/04</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="22" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="26">
+      <c r="A3" s="20">
         <f>Attendance!F3</f>
         <v>0</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="22"/>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="26">
+      <c r="A4" s="20">
         <f>Attendance!G3</f>
         <v>0</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="26">
+      <c r="A5" s="20">
         <f>Attendance!H3</f>
         <v>0</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="28"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="22"/>
     </row>
     <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="26">
+      <c r="A6" s="20">
         <f>Attendance!I3</f>
         <v>0</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="28"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="22"/>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="26">
+      <c r="A7" s="20">
         <f>Attendance!J3</f>
         <v>0</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="28"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="22"/>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="26">
+      <c r="A8" s="20">
         <f>Attendance!K3</f>
         <v>0</v>
       </c>
-      <c r="B8" s="27"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="28"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="22"/>
     </row>
     <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="26">
+      <c r="A9" s="20">
         <f>Attendance!L3</f>
         <v>0</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="28"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5A5784A-D45C-4972-862C-FEB430544E0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A75D6EB-93BE-4338-A4A6-75E89CE1AA83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
   <si>
     <t>Naam</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>We agreed on the following: Completing the course work with deadline of 18 March, creating a GitHub repository and joining it so long, creating a Discord server, have our meetings in a boardroom at the library and choosing a group leader.</t>
+  </si>
+  <si>
+    <t>Donderdag 2024/04/11</t>
   </si>
 </sst>
 </file>
@@ -516,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -572,6 +575,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -581,25 +603,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -939,26 +945,26 @@
   </sheetPr>
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="34" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -970,7 +976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -984,7 +990,7 @@
         <v>40779173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>44214987</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1012,7 +1018,7 @@
         <v>40513262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1026,7 +1032,7 @@
         <v>40977676</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1040,7 +1046,7 @@
         <v>41049764</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1054,7 +1060,7 @@
         <v>41293584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1068,7 +1074,7 @@
         <v>37943278</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1082,7 +1088,7 @@
         <v>41093615</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1096,7 +1102,7 @@
         <v>38566567</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1129,78 +1135,79 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="29"/>
-    </row>
-    <row r="2" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="28" t="s">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="36"/>
+    </row>
+    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="29"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
+      <c r="V2" s="35"/>
+      <c r="W2" s="35"/>
+      <c r="X2" s="35"/>
+      <c r="Y2" s="35"/>
+      <c r="Z2" s="36"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1214,7 +1221,9 @@
       <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="6"/>
+      <c r="F3" s="37" t="s">
+        <v>34</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1236,17 +1245,17 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="30">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="31">
+      <c r="D4" s="28">
         <v>40779173</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1274,8 +1283,8 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="32">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
         <v>2</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1284,7 +1293,7 @@
       <c r="C5" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="33">
+      <c r="D5" s="30">
         <v>44214987</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1312,8 +1321,8 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="32">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="29">
         <v>3</v>
       </c>
       <c r="B6" s="17" t="s">
@@ -1322,7 +1331,7 @@
       <c r="C6" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="33">
+      <c r="D6" s="30">
         <v>40513262</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1350,8 +1359,8 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7" s="32">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="29">
         <v>4</v>
       </c>
       <c r="B7" s="17" t="s">
@@ -1360,7 +1369,7 @@
       <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="33">
+      <c r="D7" s="30">
         <v>40977676</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1388,8 +1397,8 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8" s="32">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="29">
         <v>5</v>
       </c>
       <c r="B8" s="17" t="s">
@@ -1398,7 +1407,7 @@
       <c r="C8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="33">
+      <c r="D8" s="30">
         <v>41049764</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1426,8 +1435,8 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9" s="32">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="29">
         <v>6</v>
       </c>
       <c r="B9" s="17" t="s">
@@ -1436,7 +1445,7 @@
       <c r="C9" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="33">
+      <c r="D9" s="30">
         <v>41293584</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1464,8 +1473,8 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10" s="32">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
         <v>7</v>
       </c>
       <c r="B10" s="17" t="s">
@@ -1474,7 +1483,7 @@
       <c r="C10" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="30">
         <v>37943278</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1502,8 +1511,8 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11" s="32">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
         <v>8</v>
       </c>
       <c r="B11" s="17" t="s">
@@ -1512,7 +1521,7 @@
       <c r="C11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="33">
+      <c r="D11" s="30">
         <v>41093615</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1540,8 +1549,8 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12" s="32">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="29">
         <v>9</v>
       </c>
       <c r="B12" s="17" t="s">
@@ -1550,7 +1559,7 @@
       <c r="C12" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="33">
+      <c r="D12" s="30">
         <v>38566567</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1578,8 +1587,8 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="34">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="31">
         <v>10</v>
       </c>
       <c r="B13" s="18" t="s">
@@ -1588,7 +1597,7 @@
       <c r="C13" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="32">
         <v>37328409</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -1630,19 +1639,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D65755-5192-4D75-83BC-E01B675DC16B}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="26.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
@@ -1656,7 +1664,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="19" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="str">
         <f>Attendance!E3</f>
         <v>Maandag 2024/03/04</v>
@@ -1671,16 +1679,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20">
+    <row r="3" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="str">
         <f>Attendance!F3</f>
-        <v>0</v>
+        <v>Donderdag 2024/04/11</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="26"/>
       <c r="D3" s="22"/>
     </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <f>Attendance!G3</f>
         <v>0</v>
@@ -1689,7 +1697,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <f>Attendance!H3</f>
         <v>0</v>
@@ -1698,7 +1706,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <f>Attendance!I3</f>
         <v>0</v>
@@ -1707,7 +1715,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <f>Attendance!J3</f>
         <v>0</v>
@@ -1716,7 +1724,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <f>Attendance!K3</f>
         <v>0</v>
@@ -1725,7 +1733,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <f>Attendance!L3</f>
         <v>0</v>

--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E11F7F7F-3BCC-4C71-9B6C-9FBAF0F8E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC1C33-7C9A-4BCB-8954-110C7AF0F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19320" yWindow="-120" windowWidth="19440" windowHeight="11040" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="22440" yWindow="2850" windowWidth="43200" windowHeight="11235" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
@@ -38,6 +38,112 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>christian coetzee</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{BDF583F6-01DB-4443-A9F8-9F060DF0BAC8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{63642EFD-909B-437A-A743-0BB981A03FB8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+16:22 - 18:21</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{EDC434FD-C054-464F-ACD1-28C371D6EF68}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+12:00 - 13:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B6" authorId="0" shapeId="0" xr:uid="{5DF28A07-5314-45DF-9585-1175021AD5A6}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+15:30 - 16:30 </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
   <si>
@@ -188,9 +294,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy/mm/dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy/mm/dd;@"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,6 +372,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -762,27 +881,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
@@ -795,6 +896,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1143,22 +1262,22 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
-    <col min="4" max="4" width="24.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1170,7 +1289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1184,7 +1303,7 @@
         <v>40779173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1198,7 +1317,7 @@
         <v>44214987</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1212,7 +1331,7 @@
         <v>40513262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1226,7 +1345,7 @@
         <v>40977676</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1240,7 +1359,7 @@
         <v>41049764</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1254,7 +1373,7 @@
         <v>41293584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1268,7 +1387,7 @@
         <v>37943278</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1282,7 +1401,7 @@
         <v>41093615</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1296,7 +1415,7 @@
         <v>38566567</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1332,76 +1451,76 @@
       <selection sqref="A1:Z13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.5546875" customWidth="1"/>
-    <col min="4" max="4" width="23.109375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" customWidth="1"/>
+    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-    </row>
-    <row r="2" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
-      <c r="A2" s="36" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="52"/>
+    </row>
+    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="O2" s="36"/>
-      <c r="P2" s="36"/>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
-      <c r="V2" s="36"/>
-      <c r="W2" s="36"/>
-      <c r="X2" s="36"/>
-      <c r="Y2" s="36"/>
-      <c r="Z2" s="37"/>
-    </row>
-    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="52"/>
+    </row>
+    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1439,7 +1558,7 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -1479,7 +1598,7 @@
       <c r="Y4" s="14"/>
       <c r="Z4" s="14"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A5" s="29">
         <v>2</v>
       </c>
@@ -1519,7 +1638,7 @@
       <c r="Y5" s="14"/>
       <c r="Z5" s="14"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>3</v>
       </c>
@@ -1559,7 +1678,7 @@
       <c r="Y6" s="14"/>
       <c r="Z6" s="14"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A7" s="29">
         <v>4</v>
       </c>
@@ -1599,7 +1718,7 @@
       <c r="Y7" s="14"/>
       <c r="Z7" s="14"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>5</v>
       </c>
@@ -1639,7 +1758,7 @@
       <c r="Y8" s="14"/>
       <c r="Z8" s="14"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>6</v>
       </c>
@@ -1679,7 +1798,7 @@
       <c r="Y9" s="14"/>
       <c r="Z9" s="14"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>7</v>
       </c>
@@ -1719,7 +1838,7 @@
       <c r="Y10" s="14"/>
       <c r="Z10" s="14"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>8</v>
       </c>
@@ -1759,7 +1878,7 @@
       <c r="Y11" s="14"/>
       <c r="Z11" s="14"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>9</v>
       </c>
@@ -1799,7 +1918,7 @@
       <c r="Y12" s="14"/>
       <c r="Z12" s="14"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>10</v>
       </c>
@@ -1850,79 +1969,85 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCD80C-9B7B-4CB7-A0D5-490A32F0B5EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCD80C-9B7B-4CB7-A0D5-490A32F0B5EE}">
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.44140625" customWidth="1"/>
-    <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.88671875" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="43"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="51">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="45">
         <v>1</v>
       </c>
-      <c r="B2" s="39"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="48"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="52">
+      <c r="B2" s="36">
+        <v>45406</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="42"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="46">
         <v>2</v>
       </c>
-      <c r="B3" s="39"/>
+      <c r="B3" s="36">
+        <v>45400</v>
+      </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7"/>
       <c r="E3" s="17"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="17"/>
-      <c r="I3" s="49"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="53">
+      <c r="I3" s="43"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="47">
         <v>3</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="36">
+        <v>45401</v>
+      </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="17"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="17"/>
-      <c r="I4" s="49"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="54">
+      <c r="I4" s="43"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="48">
         <v>4</v>
       </c>
-      <c r="B5" s="39">
+      <c r="B5" s="36">
         <v>45399</v>
       </c>
       <c r="C5" s="7"/>
@@ -1931,28 +2056,29 @@
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="17"/>
-      <c r="I5" s="49"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="55">
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
         <v>5</v>
       </c>
-      <c r="B6" s="40">
+      <c r="B6" s="37">
         <v>45398</v>
       </c>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="50"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1964,14 +2090,14 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-    <col min="2" max="3" width="26.6640625" customWidth="1"/>
-    <col min="4" max="4" width="26.44140625" customWidth="1"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:4" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
@@ -1985,7 +2111,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="19" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="str">
         <f>Attendance!E3</f>
         <v>Maandag 2024/03/04</v>
@@ -2000,7 +2126,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="str">
         <f>Attendance!F3</f>
         <v>Donderdag 2024/04/11</v>
@@ -2015,7 +2141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <f>Attendance!G3</f>
         <v>0</v>
@@ -2024,7 +2150,7 @@
       <c r="C4" s="26"/>
       <c r="D4" s="22"/>
     </row>
-    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <f>Attendance!H3</f>
         <v>0</v>
@@ -2033,7 +2159,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="22"/>
     </row>
-    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <f>Attendance!I3</f>
         <v>0</v>
@@ -2042,7 +2168,7 @@
       <c r="C6" s="26"/>
       <c r="D6" s="22"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <f>Attendance!J3</f>
         <v>0</v>
@@ -2051,7 +2177,7 @@
       <c r="C7" s="26"/>
       <c r="D7" s="22"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <f>Attendance!K3</f>
         <v>0</v>
@@ -2060,7 +2186,7 @@
       <c r="C8" s="26"/>
       <c r="D8" s="22"/>
     </row>
-    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <f>Attendance!L3</f>
         <v>0</v>

--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46DC1C33-7C9A-4BCB-8954-110C7AF0F3BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F527D-3E86-4C29-B209-16BAFC635BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22440" yWindow="2850" windowWidth="43200" windowHeight="11235" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="2295" yWindow="1080" windowWidth="31845" windowHeight="11235" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
@@ -92,6 +92,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{B2C4B927-D604-45A9-9502-A3A97E3B049D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+14:30 - 18:30</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="B4" authorId="0" shapeId="0" xr:uid="{EDC434FD-C054-464F-ACD1-28C371D6EF68}">
       <text>
         <r>
@@ -113,6 +137,78 @@
           </rPr>
           <t xml:space="preserve">
 12:00 - 13:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{C14281E3-649F-4A9C-977A-6654C4562E66}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+07:30 - 12:30</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B5" authorId="0" shapeId="0" xr:uid="{76FD8A69-1D80-4C1B-9D49-38BE66C8CD49}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+11:00 - 13:00</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{DEC9EB55-B548-4010-977A-3FE9A304DC57}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>christian coetzee:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+07:00 - 09:30</t>
         </r>
       </text>
     </comment>
@@ -803,7 +899,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -896,6 +992,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1270,12 +1367,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1461,64 +1558,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="51"/>
-      <c r="X1" s="51"/>
-      <c r="Y1" s="51"/>
-      <c r="Z1" s="52"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
+      <c r="N1" s="52"/>
+      <c r="O1" s="52"/>
+      <c r="P1" s="52"/>
+      <c r="Q1" s="52"/>
+      <c r="R1" s="52"/>
+      <c r="S1" s="52"/>
+      <c r="T1" s="52"/>
+      <c r="U1" s="52"/>
+      <c r="V1" s="52"/>
+      <c r="W1" s="52"/>
+      <c r="X1" s="52"/>
+      <c r="Y1" s="52"/>
+      <c r="Z1" s="53"/>
     </row>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="51"/>
-      <c r="N2" s="51"/>
-      <c r="O2" s="51"/>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-      <c r="R2" s="51"/>
-      <c r="S2" s="51"/>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="51"/>
-      <c r="X2" s="51"/>
-      <c r="Y2" s="51"/>
-      <c r="Z2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="52"/>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="S2" s="52"/>
+      <c r="T2" s="52"/>
+      <c r="U2" s="52"/>
+      <c r="V2" s="52"/>
+      <c r="W2" s="52"/>
+      <c r="X2" s="52"/>
+      <c r="Y2" s="52"/>
+      <c r="Z2" s="53"/>
     </row>
     <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
@@ -1973,7 +2070,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1987,16 +2084,16 @@
       <c r="A1" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="54" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="45">
@@ -2020,7 +2117,9 @@
       <c r="B3" s="36">
         <v>45400</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="50">
+        <v>45406</v>
+      </c>
       <c r="D3" s="7"/>
       <c r="E3" s="17"/>
       <c r="F3" s="7"/>
@@ -2035,7 +2134,9 @@
       <c r="B4" s="36">
         <v>45401</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="50">
+        <v>45407</v>
+      </c>
       <c r="D4" s="7"/>
       <c r="E4" s="17"/>
       <c r="F4" s="7"/>
@@ -2050,7 +2151,9 @@
       <c r="B5" s="36">
         <v>45399</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="50">
+        <v>45400</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="17"/>
       <c r="F5" s="7"/>

--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\OneDrive\Desktop\Klas Werk\SEMESTER 1\CMPG 315\Projek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B3F527D-3E86-4C29-B209-16BAFC635BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49F5BF1-9AFD-4566-9031-7C528A2CC777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="1080" windowWidth="31845" windowHeight="11235" activeTab="2" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
   <si>
     <t>Naam</t>
   </si>
@@ -383,6 +383,9 @@
   </si>
   <si>
     <t>Dates</t>
+  </si>
+  <si>
+    <t>Dinsdag 2024/05/07</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -933,9 +936,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1356,7 +1357,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,12 +1368,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -1545,7 +1546,7 @@
   <dimension ref="A1:Z13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:Z13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1555,69 +1556,70 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
     <col min="5" max="5" width="15.28515625" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
-      <c r="T1" s="52"/>
-      <c r="U1" s="52"/>
-      <c r="V1" s="52"/>
-      <c r="W1" s="52"/>
-      <c r="X1" s="52"/>
-      <c r="Y1" s="52"/>
-      <c r="Z1" s="53"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
+      <c r="P1" s="50"/>
+      <c r="Q1" s="50"/>
+      <c r="R1" s="50"/>
+      <c r="S1" s="50"/>
+      <c r="T1" s="50"/>
+      <c r="U1" s="50"/>
+      <c r="V1" s="50"/>
+      <c r="W1" s="50"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="51"/>
     </row>
     <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="52"/>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="S2" s="52"/>
-      <c r="T2" s="52"/>
-      <c r="U2" s="52"/>
-      <c r="V2" s="52"/>
-      <c r="W2" s="52"/>
-      <c r="X2" s="52"/>
-      <c r="Y2" s="52"/>
-      <c r="Z2" s="53"/>
-    </row>
-    <row r="3" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="50"/>
+      <c r="S2" s="50"/>
+      <c r="T2" s="50"/>
+      <c r="U2" s="50"/>
+      <c r="V2" s="50"/>
+      <c r="W2" s="50"/>
+      <c r="X2" s="50"/>
+      <c r="Y2" s="50"/>
+      <c r="Z2" s="51"/>
+    </row>
+    <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="8" t="s">
         <v>0</v>
@@ -1631,10 +1633,12 @@
       <c r="E3" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="32" t="s">
+        <v>40</v>
+      </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -1656,16 +1660,16 @@
       <c r="Z3" s="6"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>1</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="28">
+      <c r="D4" s="26">
         <v>40779173</v>
       </c>
       <c r="E4" s="11" t="s">
@@ -1674,38 +1678,40 @@
       <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="14"/>
-      <c r="R4" s="14"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="14"/>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="G4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="13"/>
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="29">
+      <c r="A5" s="27">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="28">
         <v>44214987</v>
       </c>
       <c r="E5" s="11" t="s">
@@ -1714,38 +1720,40 @@
       <c r="F5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
-      <c r="P5" s="14"/>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
+      <c r="G5" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="29">
+      <c r="A6" s="27">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="28">
         <v>40513262</v>
       </c>
       <c r="E6" s="11" t="s">
@@ -1754,38 +1762,40 @@
       <c r="F6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
-      <c r="P6" s="14"/>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="29">
+      <c r="A7" s="27">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="28">
         <v>40977676</v>
       </c>
       <c r="E7" s="11" t="s">
@@ -1794,38 +1804,40 @@
       <c r="F7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
-      <c r="P7" s="14"/>
-      <c r="Q7" s="14"/>
-      <c r="R7" s="14"/>
-      <c r="S7" s="14"/>
-      <c r="T7" s="14"/>
-      <c r="U7" s="14"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="14"/>
-      <c r="X7" s="14"/>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="G7" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="29">
+      <c r="A8" s="27">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="28">
         <v>41049764</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -1834,38 +1846,40 @@
       <c r="F8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" s="14"/>
-      <c r="Q8" s="14"/>
-      <c r="R8" s="14"/>
-      <c r="S8" s="14"/>
-      <c r="T8" s="14"/>
-      <c r="U8" s="14"/>
-      <c r="V8" s="14"/>
-      <c r="W8" s="14"/>
-      <c r="X8" s="14"/>
-      <c r="Y8" s="14"/>
-      <c r="Z8" s="14"/>
+      <c r="G8" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" s="13"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="T8" s="13"/>
+      <c r="U8" s="13"/>
+      <c r="V8" s="13"/>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="13"/>
+      <c r="Z8" s="13"/>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="29">
+      <c r="A9" s="27">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="28">
         <v>41293584</v>
       </c>
       <c r="E9" s="11" t="s">
@@ -1874,38 +1888,40 @@
       <c r="F9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="14"/>
-      <c r="Q9" s="14"/>
-      <c r="R9" s="14"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="14"/>
-      <c r="X9" s="14"/>
-      <c r="Y9" s="14"/>
-      <c r="Z9" s="14"/>
+      <c r="G9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="29">
+      <c r="A10" s="27">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="28">
         <v>37943278</v>
       </c>
       <c r="E10" s="11" t="s">
@@ -1914,38 +1930,40 @@
       <c r="F10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
-      <c r="Y10" s="14"/>
-      <c r="Z10" s="14"/>
+      <c r="G10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="29">
+      <c r="A11" s="27">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="28">
         <v>41093615</v>
       </c>
       <c r="E11" s="11" t="s">
@@ -1954,38 +1972,40 @@
       <c r="F11" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="14"/>
-      <c r="R11" s="14"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="14"/>
-      <c r="X11" s="14"/>
-      <c r="Y11" s="14"/>
-      <c r="Z11" s="14"/>
+      <c r="G11" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="29">
+      <c r="A12" s="27">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="28">
         <v>38566567</v>
       </c>
       <c r="E12" s="11" t="s">
@@ -1994,38 +2014,40 @@
       <c r="F12" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="14"/>
-      <c r="Q12" s="14"/>
-      <c r="R12" s="14"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="14"/>
-      <c r="X12" s="14"/>
-      <c r="Y12" s="14"/>
-      <c r="Z12" s="14"/>
+      <c r="G12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="29">
         <v>10</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>37328409</v>
       </c>
       <c r="E13" s="12" t="s">
@@ -2034,26 +2056,28 @@
       <c r="F13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="18"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16"/>
-      <c r="M13" s="16"/>
-      <c r="N13" s="16"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="16"/>
+      <c r="G13" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
+      <c r="Q13" s="14"/>
+      <c r="R13" s="14"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="14"/>
+      <c r="X13" s="14"/>
+      <c r="Y13" s="14"/>
+      <c r="Z13" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2067,10 +2091,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71BCD80C-9B7B-4CB7-A0D5-490A32F0B5EE}">
+  <sheetPr>
+    <tabColor theme="3" tint="9.9978637043366805E-2"/>
+  </sheetPr>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,100 +2108,100 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="56"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="45">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="34">
         <v>45406</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="42"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="38"/>
+      <c r="I2" s="40"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46">
+      <c r="A3" s="44">
         <v>2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="34">
         <v>45400</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="48">
         <v>45406</v>
       </c>
       <c r="D3" s="7"/>
-      <c r="E3" s="17"/>
+      <c r="E3" s="15"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="43"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="41"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47">
+      <c r="A4" s="45">
         <v>3</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="34">
         <v>45401</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="48">
         <v>45407</v>
       </c>
       <c r="D4" s="7"/>
-      <c r="E4" s="17"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="43"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="46">
         <v>4</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="34">
         <v>45399</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="48">
         <v>45400</v>
       </c>
       <c r="D5" s="7"/>
-      <c r="E5" s="17"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="43"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="41"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="49">
+      <c r="A6" s="47">
         <v>5</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="35">
         <v>45398</v>
       </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="44"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="39"/>
+      <c r="I6" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2187,10 +2214,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14D65755-5192-4D75-83BC-E01B675DC16B}">
+  <sheetPr>
+    <tabColor theme="3" tint="0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2200,103 +2230,103 @@
     <col min="4" max="4" width="26.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="19" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" s="17" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="19" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="str">
+    <row r="2" spans="1:4" s="17" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="18" t="str">
         <f>Attendance!E3</f>
         <v>Maandag 2024/03/04</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="str">
+      <c r="A3" s="18" t="str">
         <f>Attendance!F3</f>
         <v>Donderdag 2024/04/11</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20">
+      <c r="A4" s="18" t="str">
         <f>Attendance!G3</f>
-        <v>0</v>
-      </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="22"/>
+        <v>Dinsdag 2024/05/07</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="20"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="20">
+      <c r="A5" s="18">
         <f>Attendance!H3</f>
         <v>0</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="22"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="20"/>
     </row>
     <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="20">
+      <c r="A6" s="18">
         <f>Attendance!I3</f>
         <v>0</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="22"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="20"/>
     </row>
     <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="20">
+      <c r="A7" s="18">
         <f>Attendance!J3</f>
         <v>0</v>
       </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="22"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="20"/>
     </row>
     <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="20">
+      <c r="A8" s="18">
         <f>Attendance!K3</f>
         <v>0</v>
       </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="22"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="20"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="20">
+      <c r="A9" s="18">
         <f>Attendance!L3</f>
         <v>0</v>
       </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="22"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Group project/Meetings/Student Information.xlsx
+++ b/Group project/Meetings/Student Information.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user-pc\OneDrive\Desktop\Klas Werk\SEMESTER 1\CMPG 315\Projek\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CMPG315_Group04_Files\CMPG315_GROUP04\Group project\Meetings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F49F5BF1-9AFD-4566-9031-7C528A2CC777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29E3EF89-1C97-4EC2-827E-F56F439940ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{C7560481-8E05-4445-B200-A318D027CF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="Students" sheetId="2" r:id="rId1"/>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="45">
   <si>
     <t>Naam</t>
   </si>
@@ -376,9 +376,6 @@
     <t>Everybody was able to attend and asked questions about anything that was unclear and suggestions were also made.</t>
   </si>
   <si>
-    <t>Discord meeting went well, but some would rather meet in person. Teams of 2 would also have meet-ups to do their tasks.</t>
-  </si>
-  <si>
     <t>Team</t>
   </si>
   <si>
@@ -386,6 +383,21 @@
   </si>
   <si>
     <t>Dinsdag 2024/05/07</t>
+  </si>
+  <si>
+    <t>Anri, Henk, Jacques, Waldo</t>
+  </si>
+  <si>
+    <t>Meeting held in the library. We discussed how far we were with out parts of the tasks and the plan forward in terms of the text messaging app and who is compiling what and when we would go over everything for the final time.</t>
+  </si>
+  <si>
+    <t>Discord meeting went well, but some would rather meet in person. Teams of two would also have meet-ups to do their tasks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everybody was able to attend and asked questions about anything that was unclear and suggestions were also made for tasks laying ahead. Members were divided into teams for developing the app and reviewing the Packet Tracer file(s) for the network designed for the scenario as given in group task 3. </t>
+  </si>
+  <si>
+    <t>Everybody gave input and some voluntered to do certain tasks. The group was divided into Front End, Back End and Front End/ Back End. Front End would design the GUI, Back End would do the necessary coding and the Front End/ Back End team would test the application.</t>
   </si>
 </sst>
 </file>
@@ -529,7 +541,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -852,19 +864,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -896,6 +895,37 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -920,7 +950,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -984,16 +1013,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1007,9 +1038,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1360,22 +1388,22 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="24.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:4" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A1" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+    </row>
+    <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>0</v>
@@ -1387,7 +1415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1401,7 +1429,7 @@
         <v>40779173</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1415,7 +1443,7 @@
         <v>44214987</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1429,7 +1457,7 @@
         <v>40513262</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1443,7 +1471,7 @@
         <v>40977676</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1457,7 +1485,7 @@
         <v>41049764</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1471,7 +1499,7 @@
         <v>41293584</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -1485,7 +1513,7 @@
         <v>37943278</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -1499,7 +1527,7 @@
         <v>41093615</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -1513,7 +1541,7 @@
         <v>38566567</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -1545,99 +1573,99 @@
   </sheetPr>
   <dimension ref="A1:Z13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.5703125" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="23.109375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A1" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="50"/>
-      <c r="P1" s="50"/>
-      <c r="Q1" s="50"/>
-      <c r="R1" s="50"/>
-      <c r="S1" s="50"/>
-      <c r="T1" s="50"/>
-      <c r="U1" s="50"/>
-      <c r="V1" s="50"/>
-      <c r="W1" s="50"/>
-      <c r="X1" s="50"/>
-      <c r="Y1" s="50"/>
-      <c r="Z1" s="51"/>
-    </row>
-    <row r="2" spans="1:26" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A2" s="50" t="s">
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
+      <c r="J1" s="51"/>
+      <c r="K1" s="51"/>
+      <c r="L1" s="51"/>
+      <c r="M1" s="51"/>
+      <c r="N1" s="51"/>
+      <c r="O1" s="51"/>
+      <c r="P1" s="51"/>
+      <c r="Q1" s="51"/>
+      <c r="R1" s="51"/>
+      <c r="S1" s="51"/>
+      <c r="T1" s="51"/>
+      <c r="U1" s="51"/>
+      <c r="V1" s="51"/>
+      <c r="W1" s="51"/>
+      <c r="X1" s="51"/>
+      <c r="Y1" s="51"/>
+      <c r="Z1" s="52"/>
+    </row>
+    <row r="2" spans="1:26" ht="25.2" x14ac:dyDescent="0.45">
+      <c r="A2" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-      <c r="L2" s="50"/>
-      <c r="M2" s="50"/>
-      <c r="N2" s="50"/>
-      <c r="O2" s="50"/>
-      <c r="P2" s="50"/>
-      <c r="Q2" s="50"/>
-      <c r="R2" s="50"/>
-      <c r="S2" s="50"/>
-      <c r="T2" s="50"/>
-      <c r="U2" s="50"/>
-      <c r="V2" s="50"/>
-      <c r="W2" s="50"/>
-      <c r="X2" s="50"/>
-      <c r="Y2" s="50"/>
-      <c r="Z2" s="51"/>
-    </row>
-    <row r="3" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="B2" s="51"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="51"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="51"/>
+      <c r="R2" s="51"/>
+      <c r="S2" s="51"/>
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="51"/>
+      <c r="X2" s="51"/>
+      <c r="Y2" s="51"/>
+      <c r="Z2" s="52"/>
+    </row>
+    <row r="3" spans="1:26" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="32" t="s">
-        <v>40</v>
+      <c r="G3" s="31" t="s">
+        <v>39</v>
       </c>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -1659,425 +1687,425 @@
       <c r="Y3" s="6"/>
       <c r="Z3" s="6"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="24">
         <v>1</v>
       </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="25">
         <v>40779173</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+      <c r="E4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="28">
+      <c r="D5" s="27">
         <v>44214987</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="E5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="28">
+      <c r="D6" s="27">
         <v>40513262</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="E6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="28">
+      <c r="D7" s="27">
         <v>40977676</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13"/>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="E7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="28">
+      <c r="D8" s="27">
         <v>41049764</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13"/>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="E8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="28">
+      <c r="D9" s="27">
         <v>41293584</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="E9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="28">
+      <c r="D10" s="27">
         <v>37943278</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+      <c r="E10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="28">
+      <c r="D11" s="27">
         <v>41093615</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="27">
+      <c r="E11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="12"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="12"/>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+      <c r="R11" s="12"/>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="12"/>
+      <c r="X11" s="12"/>
+      <c r="Y11" s="12"/>
+      <c r="Z11" s="12"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="28">
+      <c r="D12" s="27">
         <v>38566567</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="29">
+      <c r="E12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+      <c r="R12" s="12"/>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="12"/>
+      <c r="X12" s="12"/>
+      <c r="Y12" s="12"/>
+      <c r="Z12" s="12"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
         <v>10</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="29">
         <v>37328409</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="14"/>
-      <c r="Q13" s="14"/>
-      <c r="R13" s="14"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="14"/>
-      <c r="X13" s="14"/>
-      <c r="Y13" s="14"/>
-      <c r="Z13" s="14"/>
+      <c r="E13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2094,118 +2122,101 @@
   <sheetPr>
     <tabColor theme="3" tint="9.9978637043366805E-2"/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
+    <col min="1" max="1" width="24.44140625" customWidth="1"/>
+    <col min="2" max="2" width="16.88671875" customWidth="1"/>
+    <col min="3" max="4" width="17.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="53" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="43">
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="47"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="40">
         <v>1</v>
       </c>
-      <c r="B2" s="34">
+      <c r="B2" s="48">
         <v>45406</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="36"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="40"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44">
+      <c r="C2" s="35"/>
+      <c r="D2" s="37"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
         <v>2</v>
       </c>
-      <c r="B3" s="34">
+      <c r="B3" s="33">
         <v>45400</v>
       </c>
-      <c r="C3" s="48">
+      <c r="C3" s="45">
         <v>45406</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="41"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45">
+      <c r="D3" s="38"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="42">
         <v>3</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="33">
         <v>45401</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="45">
         <v>45407</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="41"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46">
+      <c r="D4" s="38"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="43">
         <v>4</v>
       </c>
-      <c r="B5" s="34">
+      <c r="B5" s="33">
         <v>45399</v>
       </c>
-      <c r="C5" s="48">
+      <c r="C5" s="45">
         <v>45400</v>
       </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="41"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="47">
+      <c r="D5" s="38"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="44">
         <v>5</v>
       </c>
-      <c r="B6" s="35">
+      <c r="B6" s="34">
         <v>45398</v>
       </c>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="42"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="39"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="49">
+        <v>45426</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -2219,114 +2230,120 @@
   </sheetPr>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1"/>
-    <col min="2" max="3" width="26.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" customWidth="1"/>
+    <col min="1" max="1" width="24.6640625" customWidth="1"/>
+    <col min="2" max="3" width="26.6640625" customWidth="1"/>
+    <col min="4" max="4" width="26.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="17" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:4" s="16" customFormat="1" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="17" customFormat="1" ht="225.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="18" t="str">
+    <row r="2" spans="1:4" s="16" customFormat="1" ht="202.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="17" t="str">
         <f>Attendance!E3</f>
         <v>Maandag 2024/03/04</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="195.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="str">
+    <row r="3" spans="1:4" ht="173.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="17" t="str">
         <f>Attendance!F3</f>
         <v>Donderdag 2024/04/11</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="str">
+      <c r="D3" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="159" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="17" t="str">
         <f>Attendance!G3</f>
         <v>Dinsdag 2024/05/07</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18">
+      <c r="B4" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="17">
         <f>Attendance!H3</f>
         <v>0</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="20"/>
-    </row>
-    <row r="6" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18">
+      <c r="B5" s="18"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="17">
         <f>Attendance!I3</f>
         <v>0</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="20"/>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18">
+      <c r="B6" s="18"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="17">
         <f>Attendance!J3</f>
         <v>0</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18">
+      <c r="B7" s="18"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="19"/>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="17">
         <f>Attendance!K3</f>
         <v>0</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="20"/>
-    </row>
-    <row r="9" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18">
+      <c r="B8" s="18"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="19"/>
+    </row>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="17">
         <f>Attendance!L3</f>
         <v>0</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="20"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
